--- a/stock_historical_data/1wk/KNRCON.NS.xlsx
+++ b/stock_historical_data/1wk/KNRCON.NS.xlsx
@@ -45623,7 +45623,9 @@
       <c r="P852" t="n">
         <v>0</v>
       </c>
-      <c r="Q852" t="inlineStr"/>
+      <c r="Q852" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/KNRCON.NS.xlsx
+++ b/stock_historical_data/1wk/KNRCON.NS.xlsx
@@ -48237,7 +48237,9 @@
       <c r="Q853" t="n">
         <v>0</v>
       </c>
-      <c r="R853" t="inlineStr"/>
+      <c r="R853" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/KNRCON.NS.xlsx
+++ b/stock_historical_data/1wk/KNRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R853"/>
+  <dimension ref="A1:R855"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48241,6 +48241,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B854" t="n">
+        <v>388.7000122070312</v>
+      </c>
+      <c r="C854" t="n">
+        <v>394.7000122070312</v>
+      </c>
+      <c r="D854" t="n">
+        <v>348.2000122070312</v>
+      </c>
+      <c r="E854" t="n">
+        <v>351.6000061035156</v>
+      </c>
+      <c r="F854" t="n">
+        <v>351.6000061035156</v>
+      </c>
+      <c r="G854" t="n">
+        <v>13863382</v>
+      </c>
+      <c r="H854" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I854" t="n">
+        <v>6</v>
+      </c>
+      <c r="J854" t="n">
+        <v>17</v>
+      </c>
+      <c r="K854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N854" t="n">
+        <v>25</v>
+      </c>
+      <c r="O854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q854" t="n">
+        <v>1</v>
+      </c>
+      <c r="R854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B855" t="n">
+        <v>350.8999938964844</v>
+      </c>
+      <c r="C855" t="n">
+        <v>363</v>
+      </c>
+      <c r="D855" t="n">
+        <v>342.5</v>
+      </c>
+      <c r="E855" t="n">
+        <v>348.7000122070312</v>
+      </c>
+      <c r="F855" t="n">
+        <v>348.7000122070312</v>
+      </c>
+      <c r="G855" t="n">
+        <v>6919179</v>
+      </c>
+      <c r="H855" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I855" t="n">
+        <v>6</v>
+      </c>
+      <c r="J855" t="n">
+        <v>24</v>
+      </c>
+      <c r="K855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N855" t="n">
+        <v>26</v>
+      </c>
+      <c r="O855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R855" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/KNRCON.NS.xlsx
+++ b/stock_historical_data/1wk/KNRCON.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R855"/>
+  <dimension ref="A1:R890"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -48173,7 +48173,7 @@
         <v>23</v>
       </c>
       <c r="O852" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P852" t="n">
         <v>0</v>
@@ -48293,7 +48293,9 @@
       <c r="Q854" t="n">
         <v>1</v>
       </c>
-      <c r="R854" t="inlineStr"/>
+      <c r="R854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -48347,7 +48349,1829 @@
       <c r="Q855" t="n">
         <v>0</v>
       </c>
-      <c r="R855" t="inlineStr"/>
+      <c r="R855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B856" t="n">
+        <v>345.6997292713178</v>
+      </c>
+      <c r="C856" t="n">
+        <v>366.6845364935622</v>
+      </c>
+      <c r="D856" t="n">
+        <v>339.2543834262856</v>
+      </c>
+      <c r="E856" t="n">
+        <v>354.7931213378906</v>
+      </c>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="n">
+        <v>9568739</v>
+      </c>
+      <c r="H856" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I856" t="n">
+        <v>7</v>
+      </c>
+      <c r="J856" t="n">
+        <v>1</v>
+      </c>
+      <c r="K856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N856" t="n">
+        <v>27</v>
+      </c>
+      <c r="O856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q856" t="n">
+        <v>0</v>
+      </c>
+      <c r="R856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B857" t="n">
+        <v>362.1877860964032</v>
+      </c>
+      <c r="C857" t="n">
+        <v>381.4738106928933</v>
+      </c>
+      <c r="D857" t="n">
+        <v>349.796732878545</v>
+      </c>
+      <c r="E857" t="n">
+        <v>363.63671875</v>
+      </c>
+      <c r="F857" t="inlineStr"/>
+      <c r="G857" t="n">
+        <v>12985794</v>
+      </c>
+      <c r="H857" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I857" t="n">
+        <v>7</v>
+      </c>
+      <c r="J857" t="n">
+        <v>8</v>
+      </c>
+      <c r="K857" t="n">
+        <v>0</v>
+      </c>
+      <c r="L857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N857" t="n">
+        <v>28</v>
+      </c>
+      <c r="O857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B858" t="n">
+        <v>365.635287632156</v>
+      </c>
+      <c r="C858" t="n">
+        <v>368.4832319305839</v>
+      </c>
+      <c r="D858" t="n">
+        <v>341.8025355492065</v>
+      </c>
+      <c r="E858" t="n">
+        <v>343.55126953125</v>
+      </c>
+      <c r="F858" t="inlineStr"/>
+      <c r="G858" t="n">
+        <v>3418786</v>
+      </c>
+      <c r="H858" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I858" t="n">
+        <v>7</v>
+      </c>
+      <c r="J858" t="n">
+        <v>15</v>
+      </c>
+      <c r="K858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N858" t="n">
+        <v>29</v>
+      </c>
+      <c r="O858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q858" t="n">
+        <v>2</v>
+      </c>
+      <c r="R858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B859" t="n">
+        <v>338.1551668339842</v>
+      </c>
+      <c r="C859" t="n">
+        <v>386.6700599714173</v>
+      </c>
+      <c r="D859" t="n">
+        <v>332.6591459973058</v>
+      </c>
+      <c r="E859" t="n">
+        <v>367.1341857910156</v>
+      </c>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="n">
+        <v>16293185</v>
+      </c>
+      <c r="H859" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I859" t="n">
+        <v>7</v>
+      </c>
+      <c r="J859" t="n">
+        <v>22</v>
+      </c>
+      <c r="K859" t="n">
+        <v>0</v>
+      </c>
+      <c r="L859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M859" t="n">
+        <v>0</v>
+      </c>
+      <c r="N859" t="n">
+        <v>30</v>
+      </c>
+      <c r="O859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q859" t="n">
+        <v>0</v>
+      </c>
+      <c r="R859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B860" t="n">
+        <v>369.732306463433</v>
+      </c>
+      <c r="C860" t="n">
+        <v>415.0994536439005</v>
+      </c>
+      <c r="D860" t="n">
+        <v>368.3333254569955</v>
+      </c>
+      <c r="E860" t="n">
+        <v>388.1189880371094</v>
+      </c>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="n">
+        <v>20821714</v>
+      </c>
+      <c r="H860" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I860" t="n">
+        <v>7</v>
+      </c>
+      <c r="J860" t="n">
+        <v>29</v>
+      </c>
+      <c r="K860" t="n">
+        <v>0</v>
+      </c>
+      <c r="L860" t="n">
+        <v>0</v>
+      </c>
+      <c r="M860" t="n">
+        <v>0</v>
+      </c>
+      <c r="N860" t="n">
+        <v>31</v>
+      </c>
+      <c r="O860" t="n">
+        <v>1</v>
+      </c>
+      <c r="P860" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q860" t="n">
+        <v>0</v>
+      </c>
+      <c r="R860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B861" t="n">
+        <v>361.7880525359723</v>
+      </c>
+      <c r="C861" t="n">
+        <v>375.0284664504255</v>
+      </c>
+      <c r="D861" t="n">
+        <v>351.7453356896245</v>
+      </c>
+      <c r="E861" t="n">
+        <v>366.8843688964844</v>
+      </c>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="n">
+        <v>8988684</v>
+      </c>
+      <c r="H861" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I861" t="n">
+        <v>8</v>
+      </c>
+      <c r="J861" t="n">
+        <v>5</v>
+      </c>
+      <c r="K861" t="n">
+        <v>0</v>
+      </c>
+      <c r="L861" t="n">
+        <v>0</v>
+      </c>
+      <c r="M861" t="n">
+        <v>0</v>
+      </c>
+      <c r="N861" t="n">
+        <v>32</v>
+      </c>
+      <c r="O861" t="n">
+        <v>0</v>
+      </c>
+      <c r="P861" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q861" t="n">
+        <v>0</v>
+      </c>
+      <c r="R861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B862" t="n">
+        <v>365.7352102330944</v>
+      </c>
+      <c r="C862" t="n">
+        <v>367.7337632944774</v>
+      </c>
+      <c r="D862" t="n">
+        <v>337.9553348780701</v>
+      </c>
+      <c r="E862" t="n">
+        <v>339.9538879394531</v>
+      </c>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="n">
+        <v>6933517</v>
+      </c>
+      <c r="H862" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I862" t="n">
+        <v>8</v>
+      </c>
+      <c r="J862" t="n">
+        <v>12</v>
+      </c>
+      <c r="K862" t="n">
+        <v>0</v>
+      </c>
+      <c r="L862" t="n">
+        <v>0</v>
+      </c>
+      <c r="M862" t="n">
+        <v>0</v>
+      </c>
+      <c r="N862" t="n">
+        <v>33</v>
+      </c>
+      <c r="O862" t="n">
+        <v>0</v>
+      </c>
+      <c r="P862" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q862" t="n">
+        <v>0</v>
+      </c>
+      <c r="R862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B863" t="n">
+        <v>342.7518330883316</v>
+      </c>
+      <c r="C863" t="n">
+        <v>349.5469009630206</v>
+      </c>
+      <c r="D863" t="n">
+        <v>329.311552216552</v>
+      </c>
+      <c r="E863" t="n">
+        <v>341.1529846191406</v>
+      </c>
+      <c r="F863" t="inlineStr"/>
+      <c r="G863" t="n">
+        <v>6922301</v>
+      </c>
+      <c r="H863" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I863" t="n">
+        <v>8</v>
+      </c>
+      <c r="J863" t="n">
+        <v>19</v>
+      </c>
+      <c r="K863" t="n">
+        <v>0</v>
+      </c>
+      <c r="L863" t="n">
+        <v>0</v>
+      </c>
+      <c r="M863" t="n">
+        <v>0</v>
+      </c>
+      <c r="N863" t="n">
+        <v>34</v>
+      </c>
+      <c r="O863" t="n">
+        <v>0</v>
+      </c>
+      <c r="P863" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q863" t="n">
+        <v>0</v>
+      </c>
+      <c r="R863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B864" t="n">
+        <v>341.1529924614702</v>
+      </c>
+      <c r="C864" t="n">
+        <v>342.9517084664702</v>
+      </c>
+      <c r="D864" t="n">
+        <v>329.311559786674</v>
+      </c>
+      <c r="E864" t="n">
+        <v>330.7105712890625</v>
+      </c>
+      <c r="F864" t="inlineStr"/>
+      <c r="G864" t="n">
+        <v>3298826</v>
+      </c>
+      <c r="H864" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I864" t="n">
+        <v>8</v>
+      </c>
+      <c r="J864" t="n">
+        <v>26</v>
+      </c>
+      <c r="K864" t="n">
+        <v>0</v>
+      </c>
+      <c r="L864" t="n">
+        <v>0</v>
+      </c>
+      <c r="M864" t="n">
+        <v>0</v>
+      </c>
+      <c r="N864" t="n">
+        <v>35</v>
+      </c>
+      <c r="O864" t="n">
+        <v>0</v>
+      </c>
+      <c r="P864" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q864" t="n">
+        <v>0</v>
+      </c>
+      <c r="R864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B865" t="n">
+        <v>331.6598804177239</v>
+      </c>
+      <c r="C865" t="n">
+        <v>360.2891474391632</v>
+      </c>
+      <c r="D865" t="n">
+        <v>329.761261074275</v>
+      </c>
+      <c r="E865" t="n">
+        <v>346.7489624023438</v>
+      </c>
+      <c r="F865" t="inlineStr"/>
+      <c r="G865" t="n">
+        <v>7499145</v>
+      </c>
+      <c r="H865" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I865" t="n">
+        <v>9</v>
+      </c>
+      <c r="J865" t="n">
+        <v>2</v>
+      </c>
+      <c r="K865" t="n">
+        <v>0</v>
+      </c>
+      <c r="L865" t="n">
+        <v>0</v>
+      </c>
+      <c r="M865" t="n">
+        <v>0</v>
+      </c>
+      <c r="N865" t="n">
+        <v>36</v>
+      </c>
+      <c r="O865" t="n">
+        <v>0</v>
+      </c>
+      <c r="P865" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>0</v>
+      </c>
+      <c r="R865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B866" t="n">
+        <v>346.4991448031579</v>
+      </c>
+      <c r="C866" t="n">
+        <v>359.4397883645906</v>
+      </c>
+      <c r="D866" t="n">
+        <v>336.8561321644052</v>
+      </c>
+      <c r="E866" t="n">
+        <v>352.6946716308594</v>
+      </c>
+      <c r="F866" t="inlineStr"/>
+      <c r="G866" t="n">
+        <v>4153819</v>
+      </c>
+      <c r="H866" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I866" t="n">
+        <v>9</v>
+      </c>
+      <c r="J866" t="n">
+        <v>9</v>
+      </c>
+      <c r="K866" t="n">
+        <v>0</v>
+      </c>
+      <c r="L866" t="n">
+        <v>0</v>
+      </c>
+      <c r="M866" t="n">
+        <v>0</v>
+      </c>
+      <c r="N866" t="n">
+        <v>37</v>
+      </c>
+      <c r="O866" t="n">
+        <v>0</v>
+      </c>
+      <c r="P866" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>2</v>
+      </c>
+      <c r="R866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B867" t="n">
+        <v>353.9936933474284</v>
+      </c>
+      <c r="C867" t="n">
+        <v>354.6432169608929</v>
+      </c>
+      <c r="D867" t="n">
+        <v>314.5222723531492</v>
+      </c>
+      <c r="E867" t="n">
+        <v>315.8213195800781</v>
+      </c>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="n">
+        <v>4550109</v>
+      </c>
+      <c r="H867" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I867" t="n">
+        <v>9</v>
+      </c>
+      <c r="J867" t="n">
+        <v>16</v>
+      </c>
+      <c r="K867" t="n">
+        <v>0</v>
+      </c>
+      <c r="L867" t="n">
+        <v>0</v>
+      </c>
+      <c r="M867" t="n">
+        <v>0</v>
+      </c>
+      <c r="N867" t="n">
+        <v>38</v>
+      </c>
+      <c r="O867" t="n">
+        <v>0</v>
+      </c>
+      <c r="P867" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>0</v>
+      </c>
+      <c r="R867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B868" t="n">
+        <v>317.8999938964844</v>
+      </c>
+      <c r="C868" t="n">
+        <v>349.9500122070312</v>
+      </c>
+      <c r="D868" t="n">
+        <v>317</v>
+      </c>
+      <c r="E868" t="n">
+        <v>336.6000061035156</v>
+      </c>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="n">
+        <v>6251214</v>
+      </c>
+      <c r="H868" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I868" t="n">
+        <v>9</v>
+      </c>
+      <c r="J868" t="n">
+        <v>23</v>
+      </c>
+      <c r="K868" t="n">
+        <v>0</v>
+      </c>
+      <c r="L868" t="n">
+        <v>0</v>
+      </c>
+      <c r="M868" t="n">
+        <v>0</v>
+      </c>
+      <c r="N868" t="n">
+        <v>39</v>
+      </c>
+      <c r="O868" t="n">
+        <v>0</v>
+      </c>
+      <c r="P868" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>0</v>
+      </c>
+      <c r="R868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B869" t="n">
+        <v>338.3999938964844</v>
+      </c>
+      <c r="C869" t="n">
+        <v>346.4500122070312</v>
+      </c>
+      <c r="D869" t="n">
+        <v>323.0499877929688</v>
+      </c>
+      <c r="E869" t="n">
+        <v>325.7999877929688</v>
+      </c>
+      <c r="F869" t="inlineStr"/>
+      <c r="G869" t="n">
+        <v>2655229</v>
+      </c>
+      <c r="H869" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I869" t="n">
+        <v>9</v>
+      </c>
+      <c r="J869" t="n">
+        <v>30</v>
+      </c>
+      <c r="K869" t="n">
+        <v>0</v>
+      </c>
+      <c r="L869" t="n">
+        <v>0</v>
+      </c>
+      <c r="M869" t="n">
+        <v>0</v>
+      </c>
+      <c r="N869" t="n">
+        <v>40</v>
+      </c>
+      <c r="O869" t="n">
+        <v>0</v>
+      </c>
+      <c r="P869" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>0</v>
+      </c>
+      <c r="R869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B870" t="n">
+        <v>326</v>
+      </c>
+      <c r="C870" t="n">
+        <v>330.5499877929688</v>
+      </c>
+      <c r="D870" t="n">
+        <v>305.2999877929688</v>
+      </c>
+      <c r="E870" t="n">
+        <v>318.3999938964844</v>
+      </c>
+      <c r="F870" t="inlineStr"/>
+      <c r="G870" t="n">
+        <v>2584984</v>
+      </c>
+      <c r="H870" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I870" t="n">
+        <v>10</v>
+      </c>
+      <c r="J870" t="n">
+        <v>7</v>
+      </c>
+      <c r="K870" t="n">
+        <v>0</v>
+      </c>
+      <c r="L870" t="n">
+        <v>0</v>
+      </c>
+      <c r="M870" t="n">
+        <v>0</v>
+      </c>
+      <c r="N870" t="n">
+        <v>41</v>
+      </c>
+      <c r="O870" t="n">
+        <v>0</v>
+      </c>
+      <c r="P870" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>0</v>
+      </c>
+      <c r="R870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B871" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="C871" t="n">
+        <v>331.5499877929688</v>
+      </c>
+      <c r="D871" t="n">
+        <v>308.3999938964844</v>
+      </c>
+      <c r="E871" t="n">
+        <v>315.1000061035156</v>
+      </c>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="n">
+        <v>2455323</v>
+      </c>
+      <c r="H871" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I871" t="n">
+        <v>10</v>
+      </c>
+      <c r="J871" t="n">
+        <v>14</v>
+      </c>
+      <c r="K871" t="n">
+        <v>0</v>
+      </c>
+      <c r="L871" t="n">
+        <v>0</v>
+      </c>
+      <c r="M871" t="n">
+        <v>0</v>
+      </c>
+      <c r="N871" t="n">
+        <v>42</v>
+      </c>
+      <c r="O871" t="n">
+        <v>0</v>
+      </c>
+      <c r="P871" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>0</v>
+      </c>
+      <c r="R871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B872" t="n">
+        <v>315.1000061035156</v>
+      </c>
+      <c r="C872" t="n">
+        <v>316.8500061035156</v>
+      </c>
+      <c r="D872" t="n">
+        <v>274.2999877929688</v>
+      </c>
+      <c r="E872" t="n">
+        <v>278</v>
+      </c>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="n">
+        <v>2906438</v>
+      </c>
+      <c r="H872" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I872" t="n">
+        <v>10</v>
+      </c>
+      <c r="J872" t="n">
+        <v>21</v>
+      </c>
+      <c r="K872" t="n">
+        <v>0</v>
+      </c>
+      <c r="L872" t="n">
+        <v>0</v>
+      </c>
+      <c r="M872" t="n">
+        <v>0</v>
+      </c>
+      <c r="N872" t="n">
+        <v>43</v>
+      </c>
+      <c r="O872" t="n">
+        <v>2</v>
+      </c>
+      <c r="P872" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>0</v>
+      </c>
+      <c r="R872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B873" t="n">
+        <v>278.2999877929688</v>
+      </c>
+      <c r="C873" t="n">
+        <v>301.8999938964844</v>
+      </c>
+      <c r="D873" t="n">
+        <v>274.3999938964844</v>
+      </c>
+      <c r="E873" t="n">
+        <v>300.75</v>
+      </c>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="n">
+        <v>2702588</v>
+      </c>
+      <c r="H873" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I873" t="n">
+        <v>10</v>
+      </c>
+      <c r="J873" t="n">
+        <v>28</v>
+      </c>
+      <c r="K873" t="n">
+        <v>0</v>
+      </c>
+      <c r="L873" t="n">
+        <v>0</v>
+      </c>
+      <c r="M873" t="n">
+        <v>0</v>
+      </c>
+      <c r="N873" t="n">
+        <v>44</v>
+      </c>
+      <c r="O873" t="n">
+        <v>0</v>
+      </c>
+      <c r="P873" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>0</v>
+      </c>
+      <c r="R873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B874" t="n">
+        <v>300.1000061035156</v>
+      </c>
+      <c r="C874" t="n">
+        <v>304.5</v>
+      </c>
+      <c r="D874" t="n">
+        <v>285.6499938964844</v>
+      </c>
+      <c r="E874" t="n">
+        <v>288.3500061035156</v>
+      </c>
+      <c r="F874" t="inlineStr"/>
+      <c r="G874" t="n">
+        <v>2351826</v>
+      </c>
+      <c r="H874" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I874" t="n">
+        <v>11</v>
+      </c>
+      <c r="J874" t="n">
+        <v>4</v>
+      </c>
+      <c r="K874" t="n">
+        <v>0</v>
+      </c>
+      <c r="L874" t="n">
+        <v>0</v>
+      </c>
+      <c r="M874" t="n">
+        <v>0</v>
+      </c>
+      <c r="N874" t="n">
+        <v>45</v>
+      </c>
+      <c r="O874" t="n">
+        <v>0</v>
+      </c>
+      <c r="P874" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>0</v>
+      </c>
+      <c r="R874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B875" t="n">
+        <v>289.7999877929688</v>
+      </c>
+      <c r="C875" t="n">
+        <v>324.8500061035156</v>
+      </c>
+      <c r="D875" t="n">
+        <v>281.1499938964844</v>
+      </c>
+      <c r="E875" t="n">
+        <v>302.4500122070312</v>
+      </c>
+      <c r="F875" t="inlineStr"/>
+      <c r="G875" t="n">
+        <v>37345222</v>
+      </c>
+      <c r="H875" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I875" t="n">
+        <v>11</v>
+      </c>
+      <c r="J875" t="n">
+        <v>11</v>
+      </c>
+      <c r="K875" t="n">
+        <v>0</v>
+      </c>
+      <c r="L875" t="n">
+        <v>0</v>
+      </c>
+      <c r="M875" t="n">
+        <v>0</v>
+      </c>
+      <c r="N875" t="n">
+        <v>46</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0</v>
+      </c>
+      <c r="P875" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
+      <c r="R875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B876" t="n">
+        <v>302.1000061035156</v>
+      </c>
+      <c r="C876" t="n">
+        <v>321.7999877929688</v>
+      </c>
+      <c r="D876" t="n">
+        <v>300.7000122070312</v>
+      </c>
+      <c r="E876" t="n">
+        <v>313.3500061035156</v>
+      </c>
+      <c r="F876" t="inlineStr"/>
+      <c r="G876" t="n">
+        <v>6063562</v>
+      </c>
+      <c r="H876" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I876" t="n">
+        <v>11</v>
+      </c>
+      <c r="J876" t="n">
+        <v>18</v>
+      </c>
+      <c r="K876" t="n">
+        <v>0</v>
+      </c>
+      <c r="L876" t="n">
+        <v>0</v>
+      </c>
+      <c r="M876" t="n">
+        <v>0</v>
+      </c>
+      <c r="N876" t="n">
+        <v>47</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0</v>
+      </c>
+      <c r="P876" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>0</v>
+      </c>
+      <c r="R876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B877" t="n">
+        <v>324</v>
+      </c>
+      <c r="C877" t="n">
+        <v>333</v>
+      </c>
+      <c r="D877" t="n">
+        <v>311.75</v>
+      </c>
+      <c r="E877" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="n">
+        <v>5648149</v>
+      </c>
+      <c r="H877" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I877" t="n">
+        <v>11</v>
+      </c>
+      <c r="J877" t="n">
+        <v>25</v>
+      </c>
+      <c r="K877" t="n">
+        <v>0</v>
+      </c>
+      <c r="L877" t="n">
+        <v>0</v>
+      </c>
+      <c r="M877" t="n">
+        <v>0</v>
+      </c>
+      <c r="N877" t="n">
+        <v>48</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0</v>
+      </c>
+      <c r="P877" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>0</v>
+      </c>
+      <c r="R877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B878" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="C878" t="n">
+        <v>343.8999938964844</v>
+      </c>
+      <c r="D878" t="n">
+        <v>323</v>
+      </c>
+      <c r="E878" t="n">
+        <v>338.8500061035156</v>
+      </c>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="n">
+        <v>4872250</v>
+      </c>
+      <c r="H878" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I878" t="n">
+        <v>12</v>
+      </c>
+      <c r="J878" t="n">
+        <v>2</v>
+      </c>
+      <c r="K878" t="n">
+        <v>0</v>
+      </c>
+      <c r="L878" t="n">
+        <v>0</v>
+      </c>
+      <c r="M878" t="n">
+        <v>0</v>
+      </c>
+      <c r="N878" t="n">
+        <v>49</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0</v>
+      </c>
+      <c r="P878" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>1</v>
+      </c>
+      <c r="R878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B879" t="n">
+        <v>340.3999938964844</v>
+      </c>
+      <c r="C879" t="n">
+        <v>347.6000061035156</v>
+      </c>
+      <c r="D879" t="n">
+        <v>331.6499938964844</v>
+      </c>
+      <c r="E879" t="n">
+        <v>339.5</v>
+      </c>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="n">
+        <v>3391488</v>
+      </c>
+      <c r="H879" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I879" t="n">
+        <v>12</v>
+      </c>
+      <c r="J879" t="n">
+        <v>9</v>
+      </c>
+      <c r="K879" t="n">
+        <v>0</v>
+      </c>
+      <c r="L879" t="n">
+        <v>0</v>
+      </c>
+      <c r="M879" t="n">
+        <v>0</v>
+      </c>
+      <c r="N879" t="n">
+        <v>50</v>
+      </c>
+      <c r="O879" t="n">
+        <v>0</v>
+      </c>
+      <c r="P879" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
+      <c r="R879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B880" t="n">
+        <v>354</v>
+      </c>
+      <c r="C880" t="n">
+        <v>358.8500061035156</v>
+      </c>
+      <c r="D880" t="n">
+        <v>321.1000061035156</v>
+      </c>
+      <c r="E880" t="n">
+        <v>325.2000122070312</v>
+      </c>
+      <c r="F880" t="inlineStr"/>
+      <c r="G880" t="n">
+        <v>5153777</v>
+      </c>
+      <c r="H880" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I880" t="n">
+        <v>12</v>
+      </c>
+      <c r="J880" t="n">
+        <v>16</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0</v>
+      </c>
+      <c r="L880" t="n">
+        <v>0</v>
+      </c>
+      <c r="M880" t="n">
+        <v>0</v>
+      </c>
+      <c r="N880" t="n">
+        <v>51</v>
+      </c>
+      <c r="O880" t="n">
+        <v>1</v>
+      </c>
+      <c r="P880" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>0</v>
+      </c>
+      <c r="R880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B881" t="n">
+        <v>325.2000122070312</v>
+      </c>
+      <c r="C881" t="n">
+        <v>327.6000061035156</v>
+      </c>
+      <c r="D881" t="n">
+        <v>313.1000061035156</v>
+      </c>
+      <c r="E881" t="n">
+        <v>315.25</v>
+      </c>
+      <c r="F881" t="inlineStr"/>
+      <c r="G881" t="n">
+        <v>1466055</v>
+      </c>
+      <c r="H881" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I881" t="n">
+        <v>12</v>
+      </c>
+      <c r="J881" t="n">
+        <v>23</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0</v>
+      </c>
+      <c r="L881" t="n">
+        <v>0</v>
+      </c>
+      <c r="M881" t="n">
+        <v>0</v>
+      </c>
+      <c r="N881" t="n">
+        <v>52</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0</v>
+      </c>
+      <c r="P881" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>0</v>
+      </c>
+      <c r="R881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B882" t="n">
+        <v>317.3999938964844</v>
+      </c>
+      <c r="C882" t="n">
+        <v>353</v>
+      </c>
+      <c r="D882" t="n">
+        <v>313.2999877929688</v>
+      </c>
+      <c r="E882" t="n">
+        <v>346.3500061035156</v>
+      </c>
+      <c r="F882" t="inlineStr"/>
+      <c r="G882" t="n">
+        <v>8099307</v>
+      </c>
+      <c r="H882" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I882" t="n">
+        <v>12</v>
+      </c>
+      <c r="J882" t="n">
+        <v>30</v>
+      </c>
+      <c r="K882" t="n">
+        <v>0</v>
+      </c>
+      <c r="L882" t="n">
+        <v>0</v>
+      </c>
+      <c r="M882" t="n">
+        <v>0</v>
+      </c>
+      <c r="N882" t="n">
+        <v>1</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0</v>
+      </c>
+      <c r="P882" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
+      <c r="R882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B883" t="n">
+        <v>356</v>
+      </c>
+      <c r="C883" t="n">
+        <v>356.9500122070312</v>
+      </c>
+      <c r="D883" t="n">
+        <v>318.25</v>
+      </c>
+      <c r="E883" t="n">
+        <v>322.25</v>
+      </c>
+      <c r="F883" t="inlineStr"/>
+      <c r="G883" t="n">
+        <v>5213211</v>
+      </c>
+      <c r="H883" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I883" t="n">
+        <v>1</v>
+      </c>
+      <c r="J883" t="n">
+        <v>6</v>
+      </c>
+      <c r="K883" t="n">
+        <v>0</v>
+      </c>
+      <c r="L883" t="n">
+        <v>0</v>
+      </c>
+      <c r="M883" t="n">
+        <v>0</v>
+      </c>
+      <c r="N883" t="n">
+        <v>2</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0</v>
+      </c>
+      <c r="P883" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
+      <c r="R883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B884" t="n">
+        <v>319</v>
+      </c>
+      <c r="C884" t="n">
+        <v>332</v>
+      </c>
+      <c r="D884" t="n">
+        <v>311.2999877929688</v>
+      </c>
+      <c r="E884" t="n">
+        <v>319.9500122070312</v>
+      </c>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="n">
+        <v>3111266</v>
+      </c>
+      <c r="H884" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I884" t="n">
+        <v>1</v>
+      </c>
+      <c r="J884" t="n">
+        <v>13</v>
+      </c>
+      <c r="K884" t="n">
+        <v>0</v>
+      </c>
+      <c r="L884" t="n">
+        <v>0</v>
+      </c>
+      <c r="M884" t="n">
+        <v>0</v>
+      </c>
+      <c r="N884" t="n">
+        <v>3</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0</v>
+      </c>
+      <c r="P884" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
+      <c r="R884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B885" t="n">
+        <v>321.9500122070312</v>
+      </c>
+      <c r="C885" t="n">
+        <v>324</v>
+      </c>
+      <c r="D885" t="n">
+        <v>293</v>
+      </c>
+      <c r="E885" t="n">
+        <v>295.1000061035156</v>
+      </c>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="n">
+        <v>2688395</v>
+      </c>
+      <c r="H885" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I885" t="n">
+        <v>1</v>
+      </c>
+      <c r="J885" t="n">
+        <v>20</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0</v>
+      </c>
+      <c r="L885" t="n">
+        <v>0</v>
+      </c>
+      <c r="M885" t="n">
+        <v>0</v>
+      </c>
+      <c r="N885" t="n">
+        <v>4</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0</v>
+      </c>
+      <c r="P885" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
+      <c r="R885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B886" t="n">
+        <v>294.0499877929688</v>
+      </c>
+      <c r="C886" t="n">
+        <v>299.7000122070312</v>
+      </c>
+      <c r="D886" t="n">
+        <v>281</v>
+      </c>
+      <c r="E886" t="n">
+        <v>296.75</v>
+      </c>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="n">
+        <v>3873833</v>
+      </c>
+      <c r="H886" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I886" t="n">
+        <v>1</v>
+      </c>
+      <c r="J886" t="n">
+        <v>27</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0</v>
+      </c>
+      <c r="L886" t="n">
+        <v>0</v>
+      </c>
+      <c r="M886" t="n">
+        <v>0</v>
+      </c>
+      <c r="N886" t="n">
+        <v>5</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0</v>
+      </c>
+      <c r="P886" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>2</v>
+      </c>
+      <c r="R886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B887" t="n">
+        <v>290.7000122070312</v>
+      </c>
+      <c r="C887" t="n">
+        <v>300.75</v>
+      </c>
+      <c r="D887" t="n">
+        <v>277</v>
+      </c>
+      <c r="E887" t="n">
+        <v>284.2000122070312</v>
+      </c>
+      <c r="F887" t="inlineStr"/>
+      <c r="G887" t="n">
+        <v>9693897</v>
+      </c>
+      <c r="H887" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I887" t="n">
+        <v>2</v>
+      </c>
+      <c r="J887" t="n">
+        <v>3</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0</v>
+      </c>
+      <c r="L887" t="n">
+        <v>0</v>
+      </c>
+      <c r="M887" t="n">
+        <v>0</v>
+      </c>
+      <c r="N887" t="n">
+        <v>6</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0</v>
+      </c>
+      <c r="P887" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
+      <c r="R887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B888" t="n">
+        <v>285.5</v>
+      </c>
+      <c r="C888" t="n">
+        <v>291.6000061035156</v>
+      </c>
+      <c r="D888" t="n">
+        <v>245</v>
+      </c>
+      <c r="E888" t="n">
+        <v>246.6000061035156</v>
+      </c>
+      <c r="F888" t="inlineStr"/>
+      <c r="G888" t="n">
+        <v>5279522</v>
+      </c>
+      <c r="H888" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I888" t="n">
+        <v>2</v>
+      </c>
+      <c r="J888" t="n">
+        <v>10</v>
+      </c>
+      <c r="K888" t="n">
+        <v>0</v>
+      </c>
+      <c r="L888" t="n">
+        <v>0</v>
+      </c>
+      <c r="M888" t="n">
+        <v>0</v>
+      </c>
+      <c r="N888" t="n">
+        <v>7</v>
+      </c>
+      <c r="O888" t="n">
+        <v>0</v>
+      </c>
+      <c r="P888" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q888" t="n">
+        <v>0</v>
+      </c>
+      <c r="R888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B889" t="n">
+        <v>245</v>
+      </c>
+      <c r="C889" t="n">
+        <v>246</v>
+      </c>
+      <c r="D889" t="n">
+        <v>232</v>
+      </c>
+      <c r="E889" t="n">
+        <v>233.6000061035156</v>
+      </c>
+      <c r="F889" t="inlineStr"/>
+      <c r="G889" t="n">
+        <v>5336151</v>
+      </c>
+      <c r="H889" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I889" t="n">
+        <v>2</v>
+      </c>
+      <c r="J889" t="n">
+        <v>17</v>
+      </c>
+      <c r="K889" t="n">
+        <v>0</v>
+      </c>
+      <c r="L889" t="n">
+        <v>0</v>
+      </c>
+      <c r="M889" t="n">
+        <v>0</v>
+      </c>
+      <c r="N889" t="n">
+        <v>8</v>
+      </c>
+      <c r="O889" t="n">
+        <v>0</v>
+      </c>
+      <c r="P889" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
+      <c r="R889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B890" t="n">
+        <v>232</v>
+      </c>
+      <c r="C890" t="n">
+        <v>233.6000061035156</v>
+      </c>
+      <c r="D890" t="n">
+        <v>214.0500030517578</v>
+      </c>
+      <c r="E890" t="n">
+        <v>220.3999938964844</v>
+      </c>
+      <c r="F890" t="inlineStr"/>
+      <c r="G890" t="n">
+        <v>2899562</v>
+      </c>
+      <c r="H890" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I890" t="n">
+        <v>2</v>
+      </c>
+      <c r="J890" t="n">
+        <v>24</v>
+      </c>
+      <c r="K890" t="n">
+        <v>0</v>
+      </c>
+      <c r="L890" t="n">
+        <v>0</v>
+      </c>
+      <c r="M890" t="n">
+        <v>0</v>
+      </c>
+      <c r="N890" t="n">
+        <v>9</v>
+      </c>
+      <c r="O890" t="n">
+        <v>0</v>
+      </c>
+      <c r="P890" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
+      <c r="R890" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/KNRCON.NS.xlsx
+++ b/stock_historical_data/1wk/KNRCON.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R890"/>
+  <dimension ref="A1:R894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48403,7 +48403,9 @@
       <c r="Q856" t="n">
         <v>0</v>
       </c>
-      <c r="R856" t="inlineStr"/>
+      <c r="R856" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
@@ -48455,7 +48457,9 @@
       <c r="Q857" t="n">
         <v>0</v>
       </c>
-      <c r="R857" t="inlineStr"/>
+      <c r="R857" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
@@ -48507,7 +48511,9 @@
       <c r="Q858" t="n">
         <v>2</v>
       </c>
-      <c r="R858" t="inlineStr"/>
+      <c r="R858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
@@ -48559,7 +48565,9 @@
       <c r="Q859" t="n">
         <v>0</v>
       </c>
-      <c r="R859" t="inlineStr"/>
+      <c r="R859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
@@ -48611,7 +48619,9 @@
       <c r="Q860" t="n">
         <v>0</v>
       </c>
-      <c r="R860" t="inlineStr"/>
+      <c r="R860" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
@@ -48663,7 +48673,9 @@
       <c r="Q861" t="n">
         <v>0</v>
       </c>
-      <c r="R861" t="inlineStr"/>
+      <c r="R861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
@@ -48715,7 +48727,9 @@
       <c r="Q862" t="n">
         <v>0</v>
       </c>
-      <c r="R862" t="inlineStr"/>
+      <c r="R862" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
@@ -48767,7 +48781,9 @@
       <c r="Q863" t="n">
         <v>0</v>
       </c>
-      <c r="R863" t="inlineStr"/>
+      <c r="R863" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
@@ -48819,7 +48835,9 @@
       <c r="Q864" t="n">
         <v>0</v>
       </c>
-      <c r="R864" t="inlineStr"/>
+      <c r="R864" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
@@ -48871,7 +48889,9 @@
       <c r="Q865" t="n">
         <v>0</v>
       </c>
-      <c r="R865" t="inlineStr"/>
+      <c r="R865" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
@@ -48923,7 +48943,9 @@
       <c r="Q866" t="n">
         <v>2</v>
       </c>
-      <c r="R866" t="inlineStr"/>
+      <c r="R866" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
@@ -48975,7 +48997,9 @@
       <c r="Q867" t="n">
         <v>0</v>
       </c>
-      <c r="R867" t="inlineStr"/>
+      <c r="R867" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
@@ -49027,7 +49051,9 @@
       <c r="Q868" t="n">
         <v>0</v>
       </c>
-      <c r="R868" t="inlineStr"/>
+      <c r="R868" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
@@ -49079,7 +49105,9 @@
       <c r="Q869" t="n">
         <v>0</v>
       </c>
-      <c r="R869" t="inlineStr"/>
+      <c r="R869" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
@@ -49131,7 +49159,9 @@
       <c r="Q870" t="n">
         <v>0</v>
       </c>
-      <c r="R870" t="inlineStr"/>
+      <c r="R870" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
@@ -49183,7 +49213,9 @@
       <c r="Q871" t="n">
         <v>0</v>
       </c>
-      <c r="R871" t="inlineStr"/>
+      <c r="R871" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
@@ -49235,7 +49267,9 @@
       <c r="Q872" t="n">
         <v>0</v>
       </c>
-      <c r="R872" t="inlineStr"/>
+      <c r="R872" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
@@ -49287,7 +49321,9 @@
       <c r="Q873" t="n">
         <v>0</v>
       </c>
-      <c r="R873" t="inlineStr"/>
+      <c r="R873" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
@@ -49339,7 +49375,9 @@
       <c r="Q874" t="n">
         <v>0</v>
       </c>
-      <c r="R874" t="inlineStr"/>
+      <c r="R874" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
@@ -49391,7 +49429,9 @@
       <c r="Q875" t="n">
         <v>0</v>
       </c>
-      <c r="R875" t="inlineStr"/>
+      <c r="R875" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
@@ -49443,7 +49483,9 @@
       <c r="Q876" t="n">
         <v>0</v>
       </c>
-      <c r="R876" t="inlineStr"/>
+      <c r="R876" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
@@ -49495,7 +49537,9 @@
       <c r="Q877" t="n">
         <v>0</v>
       </c>
-      <c r="R877" t="inlineStr"/>
+      <c r="R877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -49547,7 +49591,9 @@
       <c r="Q878" t="n">
         <v>1</v>
       </c>
-      <c r="R878" t="inlineStr"/>
+      <c r="R878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -49599,7 +49645,9 @@
       <c r="Q879" t="n">
         <v>0</v>
       </c>
-      <c r="R879" t="inlineStr"/>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -49651,7 +49699,9 @@
       <c r="Q880" t="n">
         <v>0</v>
       </c>
-      <c r="R880" t="inlineStr"/>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -49703,7 +49753,9 @@
       <c r="Q881" t="n">
         <v>0</v>
       </c>
-      <c r="R881" t="inlineStr"/>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
@@ -49755,7 +49807,9 @@
       <c r="Q882" t="n">
         <v>0</v>
       </c>
-      <c r="R882" t="inlineStr"/>
+      <c r="R882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -49807,7 +49861,9 @@
       <c r="Q883" t="n">
         <v>0</v>
       </c>
-      <c r="R883" t="inlineStr"/>
+      <c r="R883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
@@ -49859,7 +49915,9 @@
       <c r="Q884" t="n">
         <v>0</v>
       </c>
-      <c r="R884" t="inlineStr"/>
+      <c r="R884" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -49911,7 +49969,9 @@
       <c r="Q885" t="n">
         <v>0</v>
       </c>
-      <c r="R885" t="inlineStr"/>
+      <c r="R885" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -49963,7 +50023,9 @@
       <c r="Q886" t="n">
         <v>2</v>
       </c>
-      <c r="R886" t="inlineStr"/>
+      <c r="R886" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
@@ -50015,7 +50077,9 @@
       <c r="Q887" t="n">
         <v>0</v>
       </c>
-      <c r="R887" t="inlineStr"/>
+      <c r="R887" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -50067,7 +50131,9 @@
       <c r="Q888" t="n">
         <v>0</v>
       </c>
-      <c r="R888" t="inlineStr"/>
+      <c r="R888" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -50119,7 +50185,9 @@
       <c r="Q889" t="n">
         <v>0</v>
       </c>
-      <c r="R889" t="inlineStr"/>
+      <c r="R889" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
@@ -50171,7 +50239,217 @@
       <c r="Q890" t="n">
         <v>0</v>
       </c>
-      <c r="R890" t="inlineStr"/>
+      <c r="R890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B891" t="n">
+        <v>220.3899993896484</v>
+      </c>
+      <c r="C891" t="n">
+        <v>226.9499969482422</v>
+      </c>
+      <c r="D891" t="n">
+        <v>210.75</v>
+      </c>
+      <c r="E891" t="n">
+        <v>224.0299987792969</v>
+      </c>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="n">
+        <v>7607060</v>
+      </c>
+      <c r="H891" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I891" t="n">
+        <v>3</v>
+      </c>
+      <c r="J891" t="n">
+        <v>3</v>
+      </c>
+      <c r="K891" t="n">
+        <v>0</v>
+      </c>
+      <c r="L891" t="n">
+        <v>0</v>
+      </c>
+      <c r="M891" t="n">
+        <v>0</v>
+      </c>
+      <c r="N891" t="n">
+        <v>10</v>
+      </c>
+      <c r="O891" t="n">
+        <v>0</v>
+      </c>
+      <c r="P891" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q891" t="n">
+        <v>0</v>
+      </c>
+      <c r="R891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B892" t="n">
+        <v>225.9499969482422</v>
+      </c>
+      <c r="C892" t="n">
+        <v>225.9900054931641</v>
+      </c>
+      <c r="D892" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="E892" t="n">
+        <v>208.5299987792969</v>
+      </c>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="n">
+        <v>4111924</v>
+      </c>
+      <c r="H892" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I892" t="n">
+        <v>3</v>
+      </c>
+      <c r="J892" t="n">
+        <v>10</v>
+      </c>
+      <c r="K892" t="n">
+        <v>0</v>
+      </c>
+      <c r="L892" t="n">
+        <v>0</v>
+      </c>
+      <c r="M892" t="n">
+        <v>0</v>
+      </c>
+      <c r="N892" t="n">
+        <v>11</v>
+      </c>
+      <c r="O892" t="n">
+        <v>0</v>
+      </c>
+      <c r="P892" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q892" t="n">
+        <v>0</v>
+      </c>
+      <c r="R892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B893" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="C893" t="n">
+        <v>249.8000030517578</v>
+      </c>
+      <c r="D893" t="n">
+        <v>205.1999969482422</v>
+      </c>
+      <c r="E893" t="n">
+        <v>243.4400024414062</v>
+      </c>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="n">
+        <v>9697419</v>
+      </c>
+      <c r="H893" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I893" t="n">
+        <v>3</v>
+      </c>
+      <c r="J893" t="n">
+        <v>17</v>
+      </c>
+      <c r="K893" t="n">
+        <v>0</v>
+      </c>
+      <c r="L893" t="n">
+        <v>0</v>
+      </c>
+      <c r="M893" t="n">
+        <v>0</v>
+      </c>
+      <c r="N893" t="n">
+        <v>12</v>
+      </c>
+      <c r="O893" t="n">
+        <v>0</v>
+      </c>
+      <c r="P893" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q893" t="n">
+        <v>0</v>
+      </c>
+      <c r="R893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B894" t="n">
+        <v>244.9900054931641</v>
+      </c>
+      <c r="C894" t="n">
+        <v>254</v>
+      </c>
+      <c r="D894" t="n">
+        <v>222.6999969482422</v>
+      </c>
+      <c r="E894" t="n">
+        <v>228.1300048828125</v>
+      </c>
+      <c r="F894" t="inlineStr"/>
+      <c r="G894" t="n">
+        <v>11206775</v>
+      </c>
+      <c r="H894" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I894" t="n">
+        <v>3</v>
+      </c>
+      <c r="J894" t="n">
+        <v>24</v>
+      </c>
+      <c r="K894" t="n">
+        <v>0</v>
+      </c>
+      <c r="L894" t="n">
+        <v>0</v>
+      </c>
+      <c r="M894" t="n">
+        <v>0</v>
+      </c>
+      <c r="N894" t="n">
+        <v>13</v>
+      </c>
+      <c r="O894" t="n">
+        <v>0</v>
+      </c>
+      <c r="P894" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q894" t="n">
+        <v>0</v>
+      </c>
+      <c r="R894" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
